--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WordAddIn1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WordPresent\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -76,49 +76,52 @@
     <t>test middle</t>
   </si>
   <si>
+    <t>test large</t>
+  </si>
+  <si>
+    <t>large.PNG</t>
+  </si>
+  <si>
+    <t>test end</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Heading 1</t>
+  </si>
+  <si>
+    <t>Title Test</t>
+  </si>
+  <si>
+    <t>Test headding 1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>Heading 2</t>
+  </si>
+  <si>
+    <t>short.PNG</t>
+  </si>
+  <si>
     <t>middle.png</t>
-  </si>
-  <si>
-    <t>test large</t>
-  </si>
-  <si>
-    <t>large.PNG</t>
-  </si>
-  <si>
-    <t>test end</t>
-  </si>
-  <si>
-    <t>t0</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Heading 1</t>
-  </si>
-  <si>
-    <t>Title Test</t>
-  </si>
-  <si>
-    <t>Test headding 1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>Heading 2</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,17 +238,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -253,7 +245,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,16 +253,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,18 +268,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +589,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,80 +598,90 @@
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="D5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" ht="28.5">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -703,183 +691,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="30">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="30">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
